--- a/2023.xlsx
+++ b/2023.xlsx
@@ -1,37 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danita/Documents/GitHub/track-your-money/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E164573-D648-C44B-A97C-7A0A0220D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="32200" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>Август_2023</t>
+  </si>
+  <si>
+    <t>Сентябрь_2023</t>
+  </si>
+  <si>
+    <t>Октябрь_2023</t>
+  </si>
+  <si>
+    <t>Ноябрь_2023</t>
+  </si>
+  <si>
+    <t>продукты</t>
+  </si>
+  <si>
+    <t>транспорт</t>
+  </si>
+  <si>
+    <t>развлечения</t>
+  </si>
+  <si>
+    <t>здоровье</t>
+  </si>
+  <si>
+    <t>связь</t>
+  </si>
+  <si>
+    <t>квартплата</t>
+  </si>
+  <si>
+    <t>непредвиденное</t>
+  </si>
+  <si>
+    <t>одежда</t>
+  </si>
+  <si>
+    <t>цифровые</t>
+  </si>
+  <si>
+    <t>ненужные</t>
+  </si>
+  <si>
+    <t>прочее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>зарплата</t>
+  </si>
+  <si>
+    <t>подработка</t>
+  </si>
+  <si>
+    <t>дивиденды</t>
+  </si>
+  <si>
+    <t>депозиты</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Траты</t>
+  </si>
+  <si>
+    <t>Заработок</t>
+  </si>
+  <si>
+    <t>Разница</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Столбец4</t>
+  </si>
+  <si>
+    <t>Столбец5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +177,439 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E7DD458-AB44-C446-90B5-BECCBAEC555C}" name="Таблица1" displayName="Таблица1" ref="A1:E18" totalsRowCount="1" headerRowDxfId="9" dataDxfId="7" totalsRowDxfId="8" headerRowBorderDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A1:E17" xr:uid="{8E7DD458-AB44-C446-90B5-BECCBAEC555C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{888B926A-5FA7-A348-A181-AD12C0F06885}" name="категория" totalsRowLabel="Всего" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{9AA16336-412B-7A46-B05E-2752B9362B38}" name="Август_2023" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A587FD88-081C-A449-B363-3D9C1A84E7D8}" name="Сентябрь_2023" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{57724C5D-927E-D24B-9B48-C3681C5F9854}" name="Октябрь_2023" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{498622BB-66CD-914D-AAAA-C652CA76CBB9}" name="Ноябрь_2023" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{28C4773A-D17B-7242-8AE4-433649599791}" name="Таблица2" displayName="Таблица2" ref="A23:E26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A23:E26" xr:uid="{28C4773A-D17B-7242-8AE4-433649599791}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8CB3A666-E913-FE4E-8701-770D87F7A4B3}" name="Столбец1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A0219E44-A11A-EC45-8C0F-27EDDCEFB38C}" name="Столбец2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D9243A57-F1C4-344B-B883-E68DF9E83D6D}" name="Столбец3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8DBBF6DA-0A23-CD43-9F0F-1A9CDA398A2B}" name="Столбец4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{14936CAE-1E0A-A349-B143-301C49438404}" name="Столбец5" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,249 +896,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>категория</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Август_2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Сентябрь_2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>продукты</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
         <v>-12182</v>
       </c>
-      <c r="C2" t="n">
-        <v>-5418</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>транспорт</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" s="2">
+        <v>-7266</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-17303</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-17904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>-2442</v>
       </c>
-      <c r="C3" t="n">
-        <v>-1363</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>развлечения</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="C3" s="2">
+        <v>-1770</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-842</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>-3002</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>здоровье</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D4" s="2">
+        <v>-2179</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>-1700</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2">
         <v>-2021</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>связь</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-780</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>квартплата</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D5" s="2">
+        <v>-600</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-2300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1379</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1299</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
         <v>-15000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>непредвиденное</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="D7" s="2">
+        <v>-15000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
         <v>-64</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>одежда</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
         <v>-11365</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2">
         <v>-10803</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>цифровые</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ненужные</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>прочее</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-1786</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
         <v>-2330</v>
       </c>
-      <c r="C12" t="n">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>зарплата</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="C12" s="2">
+        <v>-3553</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-9900</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
         <v>40000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>подработка</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="D14" s="2">
+        <v>43381</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
         <v>3612</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2">
         <v>5470</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>дивиденды</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>депозиты</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
+      <c r="D15" s="2">
+        <v>4505</v>
+      </c>
+      <c r="E15" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1126</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <f>SUBTOTAL(109,Таблица1[Август_2023])</f>
+        <v>-1471</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUBTOTAL(109,Таблица1[Сентябрь_2023])</f>
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUBTOTAL(109,Таблица1[Октябрь_2023])</f>
+        <v>763</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUBTOTAL(109,Таблица1[Ноябрь_2023])</f>
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(B2:B7)</f>
+        <v>-31324</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C2:C7)</f>
+        <v>-30438</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(D2:D7)</f>
+        <v>-37223</v>
+      </c>
+      <c r="E24" s="3">
+        <f>SUM(E2:E7)</f>
+        <v>-38068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <f>SUM(B14:B17)</f>
+        <v>43612</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SUM(C14:C17)</f>
+        <v>46596</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM(D14:D17)</f>
+        <v>47886</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUM(E14:E17)</f>
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B24+B25</f>
+        <v>12288</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:E26" si="0">C24+C25</f>
+        <v>16158</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>10663</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>5743</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/2023.xlsx
+++ b/2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danita/Documents/GitHub/track-your-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3193C3-2F4E-8E41-ADE4-0022F93F708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE37593-3B87-1646-8A14-06E16FCC8C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="2580" windowWidth="32120" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="32120" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
